--- a/Template/果肉杀菌在线混合记录表模板.xlsx
+++ b/Template/果肉杀菌在线混合记录表模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z004JV6V\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cwq\MyCode\Cola_ AsepticLine\Cola\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D89585-C814-4DB1-992C-99C962DD2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACDACC6-6D0D-45C1-8B42-286765D45B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2265" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>果肉杀菌在线混合记录表</t>
   </si>
@@ -292,6 +292,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,9 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +624,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,55 +639,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
-        <v>45715</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -705,7 +701,7 @@
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1038,55 +1034,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>45715</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1104,7 +1100,7 @@
       <c r="E3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1145,7 +1141,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1173,7 +1169,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1199,7 +1195,7 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,7 +1221,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1247,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1273,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1331,7 +1327,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1353,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1379,7 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1405,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1457,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1488,12 +1484,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
